--- a/documentos top/MATRIZ DE RASTREABILIDADE.xlsx
+++ b/documentos top/MATRIZ DE RASTREABILIDADE.xlsx
@@ -371,11 +371,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -707,19 +707,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -960,19 +960,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1347,19 +1347,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1591,19 +1591,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1819,19 +1819,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -2052,109 +2052,109 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
+      <c r="B16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="2"/>

--- a/documentos top/MATRIZ DE RASTREABILIDADE.xlsx
+++ b/documentos top/MATRIZ DE RASTREABILIDADE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RF X RF" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="73">
   <si>
     <t>REQUISITOS</t>
   </si>
@@ -120,15 +120,6 @@
   </si>
   <si>
     <t>RN07</t>
-  </si>
-  <si>
-    <t>RN08</t>
-  </si>
-  <si>
-    <t>RN09</t>
-  </si>
-  <si>
-    <t>RN10</t>
   </si>
   <si>
     <t>MSG01</t>
@@ -245,6 +236,12 @@
   </si>
   <si>
     <t>PORT01</t>
+  </si>
+  <si>
+    <t>MSG18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       x</t>
   </si>
 </sst>
 </file>
@@ -276,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -361,11 +358,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -394,6 +400,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,7 +716,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -786,7 +794,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -803,7 +811,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -818,10 +826,10 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -836,12 +844,12 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -859,7 +867,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -876,10 +884,10 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -895,11 +903,11 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -948,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -961,7 +969,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1016,10 +1024,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1033,17 +1041,17 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1054,11 +1062,11 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -1071,12 +1079,12 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1091,59 +1099,59 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
@@ -1153,28 +1161,28 @@
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
@@ -1184,28 +1192,28 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
@@ -1215,28 +1223,28 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="11"/>
@@ -1246,28 +1254,28 @@
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="11"/>
@@ -1348,7 +1356,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1408,7 +1416,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1426,7 +1434,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1444,7 +1452,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1462,7 +1470,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1480,7 +1488,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1498,7 +1506,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -1516,7 +1524,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1534,7 +1542,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1579,10 +1587,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1600,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1651,7 +1659,9 @@
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1670,7 +1680,9 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1686,7 +1698,9 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1701,7 +1715,9 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1717,7 +1733,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1733,7 +1751,9 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
@@ -1748,54 +1768,63 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1807,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,7 +1849,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1877,10 +1906,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1894,15 +1923,15 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1913,15 +1942,15 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1932,14 +1961,14 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1951,13 +1980,13 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -1968,11 +1997,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1985,12 +2014,12 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -2002,10 +2031,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2019,13 +2048,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2036,14 +2065,14 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2053,10 +2082,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2070,12 +2099,12 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2087,13 +2116,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -2104,10 +2133,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2121,14 +2150,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2138,14 +2167,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2155,7 +2184,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2163,12 +2192,29 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
